--- a/biology/Microbiologie/Fusulinacea/Fusulinacea.xlsx
+++ b/biology/Microbiologie/Fusulinacea/Fusulinacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fusulinacea forment une super-famille éteinte de foraminifères de l'ordre des Fusulinida. Ce sont des foraminifères marins des plateformes carbonatées datant du Carbonifère moyen au Permien.
 </t>
@@ -511,64 +523,358 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le test est formé par une lame calcaire, la spirothèque, ou muraille, enroulée autour d'un axe et fermée aux extrémités de l'axe pour donner un volume fusiforme (comme un ballon de rugby). Au cours de l'enroulement, la spirothèque s'infléchit vers le tour précédent pour former des loges séparées par des cloisons, les septes. Lorsque les cloisons sont suffisamment ondulées, elles peuvent aménager des passages entre les loges. ces passages sont appelés cuniculi.
-Composition de la spirothèque
-La spirothèque est composée de une à quatre couches :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le test est formé par une lame calcaire, la spirothèque, ou muraille, enroulée autour d'un axe et fermée aux extrémités de l'axe pour donner un volume fusiforme (comme un ballon de rugby). Au cours de l'enroulement, la spirothèque s'infléchit vers le tour précédent pour former des loges séparées par des cloisons, les septes. Lorsque les cloisons sont suffisamment ondulées, elles peuvent aménager des passages entre les loges. ces passages sont appelés cuniculi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fusulinacea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusulinacea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Composition de la spirothèque</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La spirothèque est composée de une à quatre couches :
 le tectum ;
 la diaphanothèque ;
 la kériothèque ;
-les dépôts secondaires, ou tectoria.
-Le tectum
-Le tectum est la couche externe de la spirothèque. Il a un aspect sombre au microscope.
-La diaphanothèque
-La diaphanothèque est une couche de calcite finement grenue. Elle a un aspect translucide au microscope (d'où son nom).
-La kériothèque
-La kériothèque (de ker, cellule d'abeille) est composée de prismes lui donnant un aspect palissadé.
-Les dépôts secondaires, ou tectoria</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fusulinacea</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fusulinacea</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+les dépôts secondaires, ou tectoria.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fusulinacea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusulinacea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Composition de la spirothèque</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Le tectum</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tectum est la couche externe de la spirothèque. Il a un aspect sombre au microscope.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fusulinacea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusulinacea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Composition de la spirothèque</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>La diaphanothèque</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diaphanothèque est une couche de calcite finement grenue. Elle a un aspect translucide au microscope (d'où son nom).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fusulinacea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusulinacea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Composition de la spirothèque</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>La kériothèque</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La kériothèque (de ker, cellule d'abeille) est composée de prismes lui donnant un aspect palissadé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fusulinacea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusulinacea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Familles de Fusulinacea</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Fusulinacea se répartissent en plusieurs familles :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Fusulinacea se répartissent en plusieurs familles :
 Fusulinidae ;
 Schwagerinidae ;
 Verbeeckinidae ;
-Neoschwagerinidae.
-Fusulinidae
-Les Fusulinidae, ou fusulines, ont une spirothèque de type diaphanotèque. Les cloisons sont planes ou ondulées.
-Schwagerinidae
-Les Schwagerinidae (également pseudo-, ou parafusulines selon les auteurs) ont une spirothèque de type tectum et keriothèque. Les cloisons sont ondulées ou plissées à tel point que les loges non consécutives communiquent par un cuniculus.
-Verbeeckinidae
-Les Verbeeckinidae, comme les Schwagerinidae ont une spirothèque de type tectum et keriothèque. Les cloisons sont planes.
-Neoschwagerinidae
-Les Neochwagerinidae, comme les Schwagerinidae ont une spirothèque de type tectum et keriothèque.
+Neoschwagerinidae.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fusulinacea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusulinacea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Familles de Fusulinacea</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fusulinidae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Fusulinidae, ou fusulines, ont une spirothèque de type diaphanotèque. Les cloisons sont planes ou ondulées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fusulinacea</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusulinacea</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Familles de Fusulinacea</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Schwagerinidae</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Schwagerinidae (également pseudo-, ou parafusulines selon les auteurs) ont une spirothèque de type tectum et keriothèque. Les cloisons sont ondulées ou plissées à tel point que les loges non consécutives communiquent par un cuniculus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fusulinacea</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusulinacea</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Familles de Fusulinacea</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Verbeeckinidae</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Verbeeckinidae, comme les Schwagerinidae ont une spirothèque de type tectum et keriothèque. Les cloisons sont planes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fusulinacea</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusulinacea</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Familles de Fusulinacea</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Neoschwagerinidae</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Neochwagerinidae, comme les Schwagerinidae ont une spirothèque de type tectum et keriothèque.
 Les plissements de la spirothèque ont été poussés à l'extrême, pour former des cloisons perpendiculaires à l'axe d'allongement.
 Sur les autres projets Wikimedia :
 Fusulinacea, sur Wikispecies
